--- a/Running projects/Food Court North Walk/319 invoice for supply of HVAC material at food courts.xlsx
+++ b/Running projects/Food Court North Walk/319 invoice for supply of HVAC material at food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25781C97-3479-4162-9A9F-AC4262B6D15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293722DE-3868-48C7-A7CE-2744E3869E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,15 +12,15 @@
     <sheet name="working" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$6:$F$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$13:$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$6:$F$40</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$14:$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>S. #</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Total Payable Amount Rs</t>
+  </si>
+  <si>
+    <t>FINAL SUPPLIED</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
     <numFmt numFmtId="166" formatCode="0.00000%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +280,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +368,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,23 +469,29 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -553,13 +579,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>285910</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>222006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -620,7 +646,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -723,7 +749,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>192232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -769,14 +795,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>552739</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>225425</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -819,7 +845,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="617378" cy="460131"/>
@@ -875,7 +901,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="617378" cy="460131"/>
@@ -931,7 +957,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="617378" cy="460131"/>
@@ -987,7 +1013,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="617378" cy="460131"/>
@@ -1043,7 +1069,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="617378" cy="460131"/>
@@ -1099,7 +1125,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>259082</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="617378" cy="460131"/>
@@ -1441,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J63"/>
+  <dimension ref="A5:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1462,8 +1488,8 @@
     <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -1477,7 +1503,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1491,7 +1517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -1503,269 +1529,257 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+    <row r="9" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
-        <v>1</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="32">
-        <v>4560</v>
-      </c>
-      <c r="E16" s="34">
-        <v>325</v>
-      </c>
-      <c r="F16" s="35">
-        <f t="shared" ref="F16:F30" si="0">E16*D16</f>
-        <v>1482000</v>
-      </c>
-      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A17" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="32">
+        <v>4560</v>
+      </c>
+      <c r="E17" s="34">
+        <v>325</v>
+      </c>
+      <c r="F17" s="35">
+        <f t="shared" ref="F17:F31" si="0">E17*D17</f>
+        <v>1482000</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="32">
+        <v>2</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="36">
         <v>1041</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E18" s="34">
         <v>550</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F18" s="35">
         <f t="shared" si="0"/>
         <v>572550</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="63" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+      <c r="A19" s="32">
         <v>3</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <v>262</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E19" s="16">
         <v>130</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F19" s="35">
         <f t="shared" si="0"/>
         <v>34060</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.3">
-      <c r="A19" s="32">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+      <c r="A20" s="32">
         <v>4</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C20" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D20" s="32">
         <v>2880</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E20" s="34">
         <v>645</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F20" s="35">
         <f t="shared" si="0"/>
         <v>1857600</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+      <c r="G20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="32">
         <v>5</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C21" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D21" s="32">
         <v>3626</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E21" s="34">
         <v>300</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F21" s="35">
         <f t="shared" si="0"/>
         <v>1087800</v>
       </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="32">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="32">
         <v>6</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35">
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="32">
-        <v>4</v>
-      </c>
-      <c r="E22" s="34">
-        <v>16500</v>
-      </c>
-      <c r="F22" s="35">
-        <f t="shared" si="0"/>
-        <v>66000</v>
       </c>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" s="34">
-        <v>11800</v>
+        <v>16500</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="0"/>
-        <v>59000</v>
+        <v>66000</v>
       </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="32">
-        <v>7</v>
-      </c>
+      <c r="A24" s="32"/>
       <c r="B24" s="33" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="34">
-        <v>6700</v>
+        <v>11800</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="0"/>
-        <v>13400</v>
+        <v>59000</v>
       </c>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>7</v>
@@ -1774,64 +1788,64 @@
         <v>2</v>
       </c>
       <c r="E25" s="34">
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>13400</v>
       </c>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26" s="32">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E26" s="34">
-        <v>650</v>
+        <v>3600</v>
       </c>
       <c r="F26" s="35">
         <f t="shared" si="0"/>
-        <v>23400</v>
+        <v>7200</v>
       </c>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A27" s="32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="32">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E27" s="34">
-        <v>6000</v>
+        <v>650</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>23400</v>
       </c>
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>7</v>
@@ -1840,20 +1854,20 @@
         <v>2</v>
       </c>
       <c r="E28" s="34">
-        <v>17600</v>
+        <v>6000</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="0"/>
-        <v>35200</v>
+        <v>12000</v>
       </c>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>7</v>
@@ -1870,172 +1884,187 @@
       </c>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="34">
-        <v>120000</v>
+        <v>17600</v>
       </c>
       <c r="F30" s="35">
         <f t="shared" si="0"/>
+        <v>35200</v>
+      </c>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="32">
+        <v>13</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="32">
+        <v>1</v>
+      </c>
+      <c r="E31" s="34">
         <v>120000</v>
       </c>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="A31" s="38">
+      <c r="F31" s="35">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A32" s="38">
         <v>14</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C32" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D32" s="38">
         <v>1</v>
       </c>
-      <c r="E31" s="40">
+      <c r="E32" s="40">
         <v>20000</v>
       </c>
-      <c r="F31" s="41">
-        <f t="shared" ref="F31" si="1">E31*D31</f>
+      <c r="F32" s="41">
+        <f t="shared" ref="F32" si="1">E32*D32</f>
         <v>20000</v>
       </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="32">
         <v>15</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B33" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C33" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D33" s="32">
         <v>0</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E33" s="34">
         <v>15000</v>
-      </c>
-      <c r="F32" s="35">
-        <f>E32*D32</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="32">
-        <v>16</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="32">
-        <v>1</v>
-      </c>
-      <c r="E33" s="34">
-        <v>30000</v>
       </c>
       <c r="F33" s="35">
         <f>E33*D33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="32">
+        <v>16</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="32">
+        <v>1</v>
+      </c>
+      <c r="E34" s="34">
         <v>30000</v>
       </c>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="F34" s="35">
+        <f>E34*D34</f>
+        <v>30000</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="18">
-        <f>SUM(F16:F33)</f>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="49">
+        <f>SUM(F17:F34)</f>
         <v>5455410</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="18">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="18">
         <v>2874349</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="18">
-        <f>F34-F35</f>
-        <v>2581061</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="18">
+        <f>F35-F36</f>
+        <v>2581061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="E38" s="19"/>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="E39" s="20"/>
-      <c r="G39" s="3"/>
+      <c r="B39" s="5"/>
+      <c r="E39" s="19"/>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I42" s="10"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="3"/>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E57" s="16"/>
-      <c r="F57" s="17" t="e">
-        <f>#REF!*D57</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E58" s="16"/>
@@ -2079,14 +2108,22 @@
         <v>#REF!</v>
       </c>
     </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="16"/>
+      <c r="F64" s="17" t="e">
+        <f>#REF!*D64</f>
+        <v>#REF!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.25" header="0.3" footer="0.3"/>

--- a/Running projects/Food Court North Walk/319 invoice for supply of HVAC material at food courts.xlsx
+++ b/Running projects/Food Court North Walk/319 invoice for supply of HVAC material at food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293722DE-3868-48C7-A7CE-2744E3869E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD218EDC-09E1-44A5-9B81-6E2DCE2EFDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="working" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$6:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$14:$16</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>S. #</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Total Payable Amount Rs</t>
-  </si>
-  <si>
-    <t>FINAL SUPPLIED</t>
   </si>
 </sst>
 </file>
@@ -182,7 +179,7 @@
     <numFmt numFmtId="166" formatCode="0.00000%"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,17 +279,7 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="24"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -368,7 +355,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,6 +462,9 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -486,12 +476,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -518,14 +502,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>680085</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -640,7 +624,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>458471</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -743,7 +727,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>923924</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -1467,19 +1451,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J64"/>
+  <dimension ref="A7:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="55" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="2"/>
@@ -1488,75 +1472,64 @@
     <col min="11" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="28">
-        <v>45187</v>
-      </c>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="28">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="37" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="37" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F9" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
+    <row r="10" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
@@ -1567,14 +1540,14 @@
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
@@ -1626,7 +1599,7 @@
       </c>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
         <v>2</v>
       </c>
@@ -1648,7 +1621,7 @@
       </c>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32">
         <v>3</v>
       </c>
@@ -1673,7 +1646,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>4</v>
       </c>
@@ -1906,7 +1879,7 @@
       </c>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="32">
         <v>13</v>
       </c>
@@ -1928,7 +1901,7 @@
       </c>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>14</v>
       </c>
@@ -1994,39 +1967,39 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="49">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="44">
         <f>SUM(F17:F34)</f>
         <v>5455410</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="18">
         <v>2874349</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="18">
         <f>F35-F36</f>
         <v>2581061</v>
@@ -2116,8 +2089,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A10:F10"/>
+  <mergeCells count="6">
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A35:E35"/>
